--- a/零件清单.xlsx
+++ b/零件清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSNI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DA95C22C-A3AC-446A-8D40-A1CCA22F9D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DCA33A9-464A-4242-906C-48D29D0C86B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AF355937-A82D-474B-A36D-1CDCA71F549A}"/>
+    <workbookView xWindow="3510" yWindow="1560" windowWidth="32190" windowHeight="20040" xr2:uid="{AF355937-A82D-474B-A36D-1CDCA71F549A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>材料</t>
   </si>
@@ -221,6 +221,18 @@
       <t>，仅为样式外观推荐。
 购买时请注意甄别了解，只要外观、参数相同，哪家买都可使用。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热插拔底座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.Sv4zQaphR4yuPGE?tk=AQCCfljwJoE/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝购买，有的便宜有的贵，可以自己搜一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,13 +402,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -939,6 +951,50 @@
         <a:xfrm>
           <a:off x="40822" y="17498786"/>
           <a:ext cx="1527749" cy="1347107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>56031</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1580031</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1664083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA93711-9632-ADBF-5AB9-BD9BF5AE6122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="56031" y="19162060"/>
+          <a:ext cx="1524000" cy="1484788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1200,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7251AEF8-2094-4828-B0F9-983712877EE7}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1232,13 +1288,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="101.25" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="101.25" customHeight="1">
       <c r="A3" s="1"/>
@@ -1251,7 +1307,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1416,6 +1472,21 @@
       </c>
       <c r="E14" s="9" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="139.5" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1434,11 +1505,12 @@
     <hyperlink ref="E11" r:id="rId8" xr:uid="{F4BCDC48-32C6-42FC-87E5-3575E24F43F5}"/>
     <hyperlink ref="E12" r:id="rId9" xr:uid="{BC63CB57-8AB4-4AFA-916C-9F9ECCA2CF9C}"/>
     <hyperlink ref="E13" r:id="rId10" xr:uid="{D7BAAF26-37A4-4EC3-A58A-2662E5BDBE12}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{C3D15082-E46D-4155-AC70-130C475BB687}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/零件清单.xlsx
+++ b/零件清单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSNI\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DCA33A9-464A-4242-906C-48D29D0C86B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA98748-35DE-4EBA-942F-5C49B2FE47C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1560" windowWidth="32190" windowHeight="20040" xr2:uid="{AF355937-A82D-474B-A36D-1CDCA71F549A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AF355937-A82D-474B-A36D-1CDCA71F549A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>材料</t>
   </si>
@@ -233,6 +233,19 @@
   </si>
   <si>
     <t>淘宝购买，有的便宜有的贵，可以自己搜一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硅胶防滑垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5mm厚黑色带网格硅胶
+286*188mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.SwXy6bhRBdQpPbh?tk=zctDfmm5HaX/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,6 +1008,50 @@
         <a:xfrm>
           <a:off x="56031" y="19162060"/>
           <a:ext cx="1524000" cy="1484788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1577220</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1445559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647D476D-EFA8-EE8D-5374-FC7E5C8BBBB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44823" y="20831735"/>
+          <a:ext cx="1532397" cy="1367118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1256,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7251AEF8-2094-4828-B0F9-983712877EE7}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1287,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="101.25" customHeight="1">
+    <row r="2" spans="1:5" ht="151.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
@@ -1487,6 +1544,21 @@
       </c>
       <c r="E15" s="10" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="120.75" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1506,11 +1578,12 @@
     <hyperlink ref="E12" r:id="rId9" xr:uid="{BC63CB57-8AB4-4AFA-916C-9F9ECCA2CF9C}"/>
     <hyperlink ref="E13" r:id="rId10" xr:uid="{D7BAAF26-37A4-4EC3-A58A-2662E5BDBE12}"/>
     <hyperlink ref="E15" r:id="rId11" xr:uid="{C3D15082-E46D-4155-AC70-130C475BB687}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{E75792AC-FCF8-4D26-A72C-38CDC4DC5C5A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/零件清单.xlsx
+++ b/零件清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HSNI\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA98748-35DE-4EBA-942F-5C49B2FE47C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8330B314-2F45-4EF0-A5D4-68C96CED562D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AF355937-A82D-474B-A36D-1CDCA71F549A}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>材料</t>
   </si>
@@ -246,6 +246,22 @@
   </si>
   <si>
     <t>https://e.tb.cn/h.SwXy6bhRBdQpPbh?tk=zctDfmm5HaX/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均光纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（可选）
+贴LOGO灯里
+可以找找其他家有没有透光率类似小一点的
+或者问问老板两三厘米卖不卖
+带胶;LGT188-S【双雾】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.SDVfMs2CqXCK2Um?tk=neqUfmnNmGc/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,6 +1068,50 @@
         <a:xfrm>
           <a:off x="44823" y="20831735"/>
           <a:ext cx="1532397" cy="1367118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1571791</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1602442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BB23A8-FD14-C45A-8060-C1117DAE66E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="56029" y="23117735"/>
+          <a:ext cx="1515762" cy="1411942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1313,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7251AEF8-2094-4828-B0F9-983712877EE7}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1559,6 +1619,21 @@
       </c>
       <c r="E16" s="5" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="139.5" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1579,11 +1654,12 @@
     <hyperlink ref="E13" r:id="rId10" xr:uid="{D7BAAF26-37A4-4EC3-A58A-2662E5BDBE12}"/>
     <hyperlink ref="E15" r:id="rId11" xr:uid="{C3D15082-E46D-4155-AC70-130C475BB687}"/>
     <hyperlink ref="E16" r:id="rId12" xr:uid="{E75792AC-FCF8-4D26-A72C-38CDC4DC5C5A}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{97F1B1BE-A285-42FA-8996-9392721528D7}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
